--- a/data/Port Code Mapping - ANL.xlsx
+++ b/data/Port Code Mapping - ANL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tym.Teo\Documents\Delay Report - Rewrite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1893C5D2-69F0-4B8F-B09A-87BCB4F8FB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7080FF-72A3-489A-B6DE-B687AC315CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="55">
   <si>
     <t>Booking Office</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>KRBNP</t>
+  </si>
+  <si>
+    <t>KRINC</t>
+  </si>
+  <si>
+    <t>KRICH</t>
   </si>
 </sst>
 </file>
@@ -653,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -688,6 +694,14 @@
       </c>
       <c r="B3" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1188,6 +1202,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1677,6 +1692,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B07C177EC98944892D6859FC7228F27" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa0312146baf983fe551619124602045">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cadb0006-b086-403f-9c46-c0186d7f6965" xmlns:ns3="4af93f69-0cef-4f40-803d-f637351e1512" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8aa75208339fe16869b5142f429bf55" ns2:_="" ns3:_="">
     <xsd:import namespace="cadb0006-b086-403f-9c46-c0186d7f6965"/>
@@ -1893,12 +1914,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01DD0693-FE4D-4885-BF24-94BEA9248921}">
   <ds:schemaRefs>
@@ -1908,6 +1923,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE68490-0574-4399-8E76-2FC2ACED3CAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FBAC62-C129-4627-A795-495E3326B79B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1924,13 +1948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE68490-0574-4399-8E76-2FC2ACED3CAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>